--- a/data/cleaned/voting/TX-scorecard-2017.xlsx
+++ b/data/cleaned/voting/TX-scorecard-2017.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dan/working/enviro_papers/data/cleaned/voting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7738F6C-4DFC-6B45-AC55-A7BA0961514D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F330F897-76E6-E44A-978E-B55F65294751}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="House" sheetId="1" r:id="rId1"/>
@@ -5187,13 +5187,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="16"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
     <col min="5" max="16" width="8"/>
     <col min="17" max="17" width="12"/>
     <col min="18" max="29" width="8"/>
@@ -12760,7 +12760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B32"/>
     </sheetView>
   </sheetViews>
